--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8025" windowHeight="8610"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="EffectInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -35,12 +35,27 @@
     <t>res_name</t>
   </si>
   <si>
+    <t>show_type</t>
+  </si>
+  <si>
+    <t>show_time</t>
+  </si>
+  <si>
     <t>float_data</t>
   </si>
   <si>
+    <t>int_data</t>
+  </si>
+  <si>
+    <t>long_data</t>
+  </si>
+  <si>
     <t>vector3_data</t>
   </si>
   <si>
+    <t>vector4_data</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -50,28 +65,49 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
     <t>内容</t>
   </si>
   <si>
+    <t>展示类型 0一次性 1持久性</t>
+  </si>
+  <si>
+    <t>粒子实例存在时间</t>
+  </si>
+  <si>
     <t>float数据</t>
   </si>
   <si>
+    <t>int数据</t>
+  </si>
+  <si>
+    <t>long数据</t>
+  </si>
+  <si>
     <t>vector3数据</t>
   </si>
   <si>
+    <t>vector4数据</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>EffectBoom_Fire_1</t>
   </si>
   <si>
-    <t>LifeTime:0.5&amp;WaveSize:2x{Size}&amp;BoomSize:1x{Size}&amp;SmokeSize:1x{Size}</t>
-  </si>
-  <si>
-    <t>StartPosition&amp;{StartPosition}</t>
+    <t>LifeTime:0.5&amp;WaveSize:2*{Size}&amp;BoomSize:1*{Size}&amp;SmokeSize:1*{Size}</t>
+  </si>
+  <si>
+    <t>StartPosition:{StartPosition}</t>
   </si>
   <si>
     <t>火球</t>
@@ -86,13 +122,37 @@
     <t>EffectExplosion_1</t>
   </si>
   <si>
-    <t>SizeFloor:3x{Size}&amp;CircleSize:2x{Size}</t>
+    <t>SizeFloor:3*{Size}&amp;CircleSize:2*{Size}</t>
   </si>
   <si>
     <t>爆炸</t>
   </si>
   <si>
+    <t>EffectSlash_1</t>
+  </si>
+  <si>
+    <t>LifeTime:0.2&amp;Size:1&amp;Speed:10</t>
+  </si>
+  <si>
+    <t>Direction:{Direction}</t>
+  </si>
+  <si>
+    <t>StartPosition:0,0.5,0+{StartPosition}</t>
+  </si>
+  <si>
     <t>刀锋</t>
+  </si>
+  <si>
+    <t>EffectBuff_1</t>
+  </si>
+  <si>
+    <t>LifeTime:0.5&amp;Size:1</t>
+  </si>
+  <si>
+    <t>ColorFloor:0.451,0.972,0.407,1&amp;ColorGlowV:0.198,0.734,0.156,1&amp;ColorLine:0.376,1.474,0.313,1&amp;ColorPoints:1,1,1,1&amp;ColorBoke:1,0.949,0.580,1</t>
+  </si>
+  <si>
+    <t>ColorFloor:0.636,1,0.996,1&amp;ColorGlowV:0.325,0.657,1,1&amp;ColorLine:0.686,0.992,0.958,1&amp;ColorPoints:1,1,1,1&amp;ColorBoke:0.505,1,0.845,1</t>
   </si>
 </sst>
 </file>
@@ -1060,21 +1120,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="74.875" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="3" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="74.875" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="41.5" customWidth="1"/>
+    <col min="9" max="9" width="152.625" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,95 +1154,210 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>100001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>300001</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>400001</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>500001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>500002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>ColorFloor:0.636,1,0.996,1&amp;ColorGlowV:0.325,0.657,1,1&amp;ColorLine:0.686,0.992,0.958,1&amp;ColorPoints:1,1,1,1&amp;ColorBoke:0.505,1,0.845,1</t>
+  </si>
+  <si>
+    <t>EffectBuff_2</t>
+  </si>
+  <si>
+    <t>ColorEffect:1,1,1,1&amp;ColorSmoke:0.783,0.284,0.284,1</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1129,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1360,6 +1366,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>600001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="19" ht="12" customHeight="1"/>
     <row r="20" ht="12" customHeight="1"/>
     <row r="21" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -152,13 +152,31 @@
     <t>ColorFloor:0.451,0.972,0.407,1&amp;ColorGlowV:0.198,0.734,0.156,1&amp;ColorLine:0.376,1.474,0.313,1&amp;ColorPoints:1,1,1,1&amp;ColorBoke:1,0.949,0.580,1</t>
   </si>
   <si>
+    <t>加血</t>
+  </si>
+  <si>
     <t>ColorFloor:0.636,1,0.996,1&amp;ColorGlowV:0.325,0.657,1,1&amp;ColorLine:0.686,0.992,0.958,1&amp;ColorPoints:1,1,1,1&amp;ColorBoke:0.505,1,0.845,1</t>
   </si>
   <si>
+    <t>加甲</t>
+  </si>
+  <si>
     <t>EffectBuff_2</t>
   </si>
   <si>
     <t>ColorEffect:1,1,1,1&amp;ColorSmoke:0.783,0.284,0.284,1</t>
+  </si>
+  <si>
+    <t>魅惑</t>
+  </si>
+  <si>
+    <t>EffectBodySlam_1</t>
+  </si>
+  <si>
+    <t>Size:0.75*{Size}</t>
+  </si>
+  <si>
+    <t>地面打击</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1147,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>500001</v>
       </c>
@@ -1342,8 +1360,11 @@
       <c r="I8" t="s">
         <v>40</v>
       </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>500002</v>
       </c>
@@ -1363,15 +1384,18 @@
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>600001</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1380,7 +1404,30 @@
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>700001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>地面打击</t>
+  </si>
+  <si>
+    <t>EffectPillarBlast_Fire_1</t>
+  </si>
+  <si>
+    <t>Size:1.25*{Size}</t>
+  </si>
+  <si>
+    <t>火锥</t>
+  </si>
+  <si>
+    <t>EffectPillarBlast_Ice_1</t>
+  </si>
+  <si>
+    <t>冰锥</t>
   </si>
 </sst>
 </file>
@@ -1147,12 +1162,12 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="4" width="26.75" customWidth="1"/>
     <col min="5" max="5" width="74.875" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
@@ -1428,6 +1443,46 @@
       </c>
       <c r="J11" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>800001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>800002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="EffectInfo" sheetId="1" r:id="rId1"/>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_effect_info[粒子信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="EffectInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,6 +1326,9 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" t="s">
         <v>32</v>
       </c>
